--- a/Dif/Практическая работа 1, 2.xlsx
+++ b/Dif/Практическая работа 1, 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>i</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>u2точ</t>
+  </si>
+  <si>
+    <t>2-ой</t>
+  </si>
+  <si>
+    <t>4-ый</t>
   </si>
 </sst>
 </file>
@@ -281,14 +287,12 @@
   <dxfs count="47">
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -301,127 +305,21 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -486,12 +384,70 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -522,22 +478,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
@@ -592,65 +534,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
@@ -667,30 +552,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -1044,6 +906,150 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1096,7 +1102,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1682,7 +1687,6 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1795,7 +1799,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2556,7 +2559,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2702,6 +2704,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Рунге-Кутта 2-го порядка</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -6538,67 +6543,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:F25"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="i" dataDxfId="5"/>
-    <tableColumn id="2" name="xi" dataDxfId="4"/>
-    <tableColumn id="3" name="ui" dataDxfId="3"/>
-    <tableColumn id="4" name="uiточ." dataDxfId="2"/>
-    <tableColumn id="5" name="f(xi; ui)" dataDxfId="1"/>
-    <tableColumn id="6" name="H * f(xi;yi)" dataDxfId="0"/>
+    <tableColumn id="1" name="i" dataDxfId="44"/>
+    <tableColumn id="2" name="xi" dataDxfId="43"/>
+    <tableColumn id="3" name="ui" dataDxfId="42"/>
+    <tableColumn id="4" name="uiточ." dataDxfId="41"/>
+    <tableColumn id="5" name="f(xi; ui)" dataDxfId="40"/>
+    <tableColumn id="6" name="H * f(xi;yi)" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="J1:L22" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="J1:L22" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="J1:L22"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="k1" dataDxfId="44">
+    <tableColumn id="1" name="k1" dataDxfId="36">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * O2) - EXP(O2) * Таблица3[[#This Row],[ui]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="k2" dataDxfId="43">
+    <tableColumn id="2" name="k2" dataDxfId="35">
       <calculatedColumnFormula>0.1*((EXP(2*(O2+0.05)))-EXP((O2+0.05))*(L2 + Таблица3[[#This Row],[k1]] / 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ui" dataDxfId="42"/>
+    <tableColumn id="3" name="ui" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="P1:T22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="P1:T22" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="P1:T22"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="k1" dataDxfId="39">
+    <tableColumn id="1" name="k1" dataDxfId="31">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * O2) - EXP(O2) * Таблица4[[#This Row],[ui]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="k2" dataDxfId="38">
+    <tableColumn id="2" name="k2" dataDxfId="30">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.05)) - EXP(O2 + 0.05) * (T2 + P2/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="k3" dataDxfId="37">
+    <tableColumn id="3" name="k3" dataDxfId="29">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.05)) - EXP(O2 + 0.05) * (T2 + Q2/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="k4" dataDxfId="36">
+    <tableColumn id="4" name="k4" dataDxfId="28">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.1)) - EXP(O2 + 0.1) * (T2 + R2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="ui" dataDxfId="35"/>
+    <tableColumn id="5" name="ui" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:E28"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="i" dataDxfId="32"/>
-    <tableColumn id="2" name="xi" dataDxfId="31"/>
-    <tableColumn id="3" name="u1" dataDxfId="30"/>
-    <tableColumn id="4" name="u2" dataDxfId="29"/>
-    <tableColumn id="5" name="u2точ" dataDxfId="28">
+    <tableColumn id="1" name="i" dataDxfId="24"/>
+    <tableColumn id="2" name="xi" dataDxfId="23"/>
+    <tableColumn id="3" name="u1" dataDxfId="22"/>
+    <tableColumn id="4" name="u2" dataDxfId="21"/>
+    <tableColumn id="5" name="u2точ" dataDxfId="20">
       <calculatedColumnFormula xml:space="preserve"> -3 * EXP(B2) + 5.31 * EXP(B2 * SQRT(3)) + 5.31 *  EXP(-B2 * SQRT(3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6607,25 +6612,25 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="G1:L22" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="G1:L22" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="G1:L22"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="k1" dataDxfId="16">
+    <tableColumn id="1" name="k1" dataDxfId="17">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="k2" dataDxfId="25">
+    <tableColumn id="2" name="k2" dataDxfId="16">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (((I2 + J2) / 2) + I2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="l1" dataDxfId="15">
       <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2) + 3 * L2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="l2" dataDxfId="17">
+    <tableColumn id="4" name="l2" dataDxfId="14">
       <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) + 3 * (K2 + G2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="u1" dataDxfId="22">
+    <tableColumn id="5" name="u1" dataDxfId="13">
       <calculatedColumnFormula xml:space="preserve"> K1 + ((G1 + H1) / 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="u2" dataDxfId="21">
+    <tableColumn id="6" name="u2" dataDxfId="12">
       <calculatedColumnFormula xml:space="preserve"> L1 +  (0.1 * (6 * EXP(B1) - (-3 * K1)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6634,35 +6639,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="N1:W22" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="N1:W22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="N1:W22"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="k1" dataDxfId="11">
+    <tableColumn id="1" name="k1" dataDxfId="9">
       <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2) + 3 * W2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="k2" dataDxfId="8">
       <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) + 3 * (W2 + Таблица8[[#This Row],[l1]] / 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="k3" dataDxfId="10">
+    <tableColumn id="3" name="k3" dataDxfId="7">
       <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) + 3 * (W2 + Таблица8[[#This Row],[l2]] / 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="k4" dataDxfId="9">
+    <tableColumn id="4" name="k4" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) + 3 * (V2 + Таблица8[[#This Row],[k3]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="l1" dataDxfId="20">
+    <tableColumn id="5" name="l1" dataDxfId="5">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (6 * EXP(B2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="l2" dataDxfId="19">
+    <tableColumn id="6" name="l2" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (6 * EXP(B2 + 0.05))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="l3" dataDxfId="18">
+    <tableColumn id="7" name="l3" dataDxfId="3">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (6 * EXP(B2 + 0.05))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="l4" dataDxfId="14">
+    <tableColumn id="8" name="l4" dataDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (6 * EXP(B2 + 0.1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="u1" dataDxfId="13"/>
-    <tableColumn id="10" name="u2" dataDxfId="12"/>
+    <tableColumn id="9" name="u1" dataDxfId="1"/>
+    <tableColumn id="10" name="u2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6931,29 +6936,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="I25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="J1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" customWidth="1"/>
+    <col min="20" max="20" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -7008,8 +7013,14 @@
       <c r="T1" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>0</v>
       </c>
@@ -7020,11 +7031,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="7">
-        <f xml:space="preserve"> EXP(O2) - 1</f>
+        <f t="shared" ref="D2:D22" si="0" xml:space="preserve"> EXP(O2) - 1</f>
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <f xml:space="preserve"> EXP(2 * O2) - EXP(O2) * C2</f>
+        <f t="shared" ref="E2:E22" si="1" xml:space="preserve"> EXP(2 * O2) - EXP(O2) * C2</f>
         <v>1</v>
       </c>
       <c r="F2" s="3">
@@ -7059,22 +7070,30 @@
         <v>0.1</v>
       </c>
       <c r="Q2" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.05)) - EXP(O2 + 0.05) * (T2 + P2/2))</f>
+        <f t="shared" ref="Q2:Q22" si="2" xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.05)) - EXP(O2 + 0.05) * (T2 + P2/2))</f>
         <v>0.10526073632568465</v>
       </c>
       <c r="R2" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.05)) - EXP(O2 + 0.05) * (T2 + Q2/2))</f>
+        <f t="shared" ref="R2:R22" si="3" xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.05)) - EXP(O2 + 0.05) * (T2 + Q2/2))</f>
         <v>0.10498421332344228</v>
       </c>
       <c r="S2" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.1)) - EXP(O2 + 0.1) * (T2 + R2))</f>
+        <f t="shared" ref="S2:S22" si="4" xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.1)) - EXP(O2 + 0.1) * (T2 + R2))</f>
         <v>0.11053772587380516</v>
       </c>
       <c r="T2" s="12">
         <v>0</v>
       </c>
+      <c r="V2">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -7086,15 +7105,15 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="7">
-        <f xml:space="preserve"> EXP(O3) - 1</f>
+        <f t="shared" si="0"/>
         <v>0.10517091807564771</v>
       </c>
       <c r="E3" s="3">
-        <f xml:space="preserve"> EXP(2 * O3) - EXP(O3) * C3</f>
+        <f t="shared" si="1"/>
         <v>1.110885666352605</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F22" si="0" xml:space="preserve"> $B$24 * E3</f>
+        <f t="shared" ref="F3:F22" si="5" xml:space="preserve"> $B$24 * E3</f>
         <v>0.11108856663526051</v>
       </c>
       <c r="H3" s="18">
@@ -7126,23 +7145,31 @@
         <v>0.11051705281864199</v>
       </c>
       <c r="Q3" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O3 + 0.05)) - EXP(O3 + 0.05) * (T3 + P3/2))</f>
+        <f t="shared" si="2"/>
         <v>0.11634659755522146</v>
       </c>
       <c r="R3" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O3 + 0.05)) - EXP(O3 + 0.05) * (T3 + Q3/2))</f>
+        <f t="shared" si="3"/>
         <v>0.11600794932049774</v>
       </c>
       <c r="S3" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O3 + 0.1)) - EXP(O3 + 0.1) * (T3 + R3))</f>
+        <f t="shared" si="4"/>
         <v>0.12216757880626401</v>
       </c>
       <c r="T3" s="12">
         <f xml:space="preserve"> T2 +  ((P2 + 2 * Q2 + 2 * R2 + S2) / 6)</f>
         <v>0.10517127086200984</v>
       </c>
+      <c r="V3">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>8.9818250036940994E-5</v>
+      </c>
+      <c r="W3">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>3.5278636212332515E-7</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -7150,19 +7177,19 @@
         <v>0.2</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" ref="C4:C22" si="1" xml:space="preserve"> C3 + F3</f>
+        <f t="shared" ref="C4:C22" si="6" xml:space="preserve"> C3 + F3</f>
         <v>0.21108856663526052</v>
       </c>
       <c r="D4" s="7">
-        <f xml:space="preserve"> EXP(O4) - 1</f>
+        <f t="shared" si="0"/>
         <v>0.22140275816016985</v>
       </c>
       <c r="E4" s="3">
-        <f xml:space="preserve"> EXP(2 * O4) - EXP(O4) * C4</f>
+        <f t="shared" si="1"/>
         <v>1.2340005401368863</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.12340005401368864</v>
       </c>
       <c r="H4" s="18">
@@ -7180,7 +7207,7 @@
         <v>0.12857840932454923</v>
       </c>
       <c r="L4" s="12">
-        <f t="shared" ref="L4:L21" si="2" xml:space="preserve"> L3 + K3</f>
+        <f t="shared" ref="L4:L21" si="7" xml:space="preserve"> L3 + K3</f>
         <v>0.2215975138566286</v>
       </c>
       <c r="N4" s="18">
@@ -7194,23 +7221,31 @@
         <v>0.12214017807148242</v>
       </c>
       <c r="Q4" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O4 + 0.05)) - EXP(O4 + 0.05) * (T4 + P4/2))</f>
+        <f t="shared" si="2"/>
         <v>0.12860179278163855</v>
       </c>
       <c r="R4" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O4 + 0.05)) - EXP(O4 + 0.05) * (T4 + Q4/2))</f>
+        <f t="shared" si="3"/>
         <v>0.12818694890560436</v>
       </c>
       <c r="S4" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O4 + 0.1)) - EXP(O4 + 0.1) * (T4 + R4))</f>
+        <f t="shared" si="4"/>
         <v>0.13502209750256888</v>
       </c>
       <c r="T4" s="12">
-        <f t="shared" ref="T4:T22" si="3" xml:space="preserve"> T3 +  ((P3 + 2 * Q3 + 2 * R3 + S3) / 6)</f>
+        <f t="shared" ref="T4:T22" si="8" xml:space="preserve"> T3 +  ((P3 + 2 * Q3 + 2 * R3 + S3) / 6)</f>
         <v>0.22140355842473392</v>
       </c>
+      <c r="V4">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>1.9475569645874269E-4</v>
+      </c>
+      <c r="W4">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>8.0026456406034896E-7</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -7218,19 +7253,19 @@
         <v>0.3</v>
       </c>
       <c r="C5" s="6">
+        <f t="shared" si="6"/>
+        <v>0.33448862064894913</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.34985880757600318</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
-        <v>0.33448862064894913</v>
-      </c>
-      <c r="D5" s="7">
-        <f xml:space="preserve"> EXP(O5) - 1</f>
-        <v>0.34985880757600318</v>
-      </c>
-      <c r="E5" s="3">
-        <f xml:space="preserve"> EXP(2 * O5) - EXP(O5) * C5</f>
         <v>1.3706063897735763</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.13706063897735762</v>
       </c>
       <c r="H5" s="18">
@@ -7248,7 +7283,7 @@
         <v>0.14210827495291486</v>
       </c>
       <c r="L5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.35017592318117785</v>
       </c>
       <c r="N5" s="18">
@@ -7262,23 +7297,31 @@
         <v>0.13498569483612655</v>
       </c>
       <c r="Q5" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O5 + 0.05)) - EXP(O5 + 0.05) * (T5 + P5/2))</f>
+        <f t="shared" si="2"/>
         <v>0.14215005629779928</v>
       </c>
       <c r="R5" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O5 + 0.05)) - EXP(O5 + 0.05) * (T5 + Q5/2))</f>
+        <f t="shared" si="3"/>
         <v>0.14164172065496669</v>
       </c>
       <c r="S5" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O5 + 0.1)) - EXP(O5 + 0.1) * (T5 + R5))</f>
+        <f t="shared" si="4"/>
         <v>0.14923062468237186</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.34986018491615678</v>
       </c>
+      <c r="V5">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>3.1711560517466708E-4</v>
+      </c>
+      <c r="W5">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>1.3773401535965846E-6</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -7286,19 +7329,19 @@
         <v>0.4</v>
       </c>
       <c r="C6" s="6">
+        <f t="shared" si="6"/>
+        <v>0.47154925962630678</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.49182469764127035</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>0.47154925962630678</v>
-      </c>
-      <c r="D6" s="7">
-        <f xml:space="preserve"> EXP(O6) - 1</f>
-        <v>0.49182469764127035</v>
-      </c>
-      <c r="E6" s="3">
-        <f xml:space="preserve"> EXP(2 * O6) - EXP(O6) * C6</f>
         <v>1.5220720968274879</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.15220720968274881</v>
       </c>
       <c r="H6" s="18">
@@ -7316,7 +7359,7 @@
         <v>0.15706192153467705</v>
       </c>
       <c r="L6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.49228419813409274</v>
       </c>
       <c r="N6" s="18">
@@ -7330,23 +7373,31 @@
         <v>0.14918215158095904</v>
       </c>
       <c r="Q6" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O6 + 0.05)) - EXP(O6 + 0.05) * (T6 + P6/2))</f>
+        <f t="shared" si="2"/>
         <v>0.15712830066624195</v>
       </c>
       <c r="R6" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O6 + 0.05)) - EXP(O6 + 0.05) * (T6 + Q6/2))</f>
+        <f t="shared" si="3"/>
         <v>0.15650519854433342</v>
       </c>
       <c r="S6" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O6 + 0.1)) - EXP(O6 + 0.1) * (T6 + R6))</f>
+        <f t="shared" si="4"/>
         <v>0.16493630217191957</v>
       </c>
       <c r="T6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49182683048682851</v>
       </c>
+      <c r="V6">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>4.5950049282239558E-4</v>
+      </c>
+      <c r="W6">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>2.1328455581670624E-6</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -7354,19 +7405,19 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.62375646930905559</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64872127070012819</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
-        <v>0.62375646930905559</v>
-      </c>
-      <c r="D7" s="7">
-        <f xml:space="preserve"> EXP(O7) - 1</f>
-        <v>0.64872127070012819</v>
-      </c>
-      <c r="E7" s="3">
-        <f xml:space="preserve"> EXP(2 * O7) - EXP(O7) * C7</f>
         <v>1.6898812697723935</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.16898812697723936</v>
       </c>
       <c r="H7" s="18">
@@ -7384,7 +7435,7 @@
         <v>0.17358916265045901</v>
       </c>
       <c r="L7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.64934611966876976</v>
       </c>
       <c r="N7" s="18">
@@ -7398,23 +7449,31 @@
         <v>0.16487161017132212</v>
       </c>
       <c r="Q7" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O7 + 0.05)) - EXP(O7 + 0.05) * (T7 + P7/2))</f>
+        <f t="shared" si="2"/>
         <v>0.17368803817990819</v>
       </c>
       <c r="R7" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O7 + 0.05)) - EXP(O7 + 0.05) * (T7 + Q7/2))</f>
+        <f t="shared" si="3"/>
         <v>0.17292398315727356</v>
       </c>
       <c r="S7" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O7 + 0.1)) - EXP(O7 + 0.1) * (T7 + R7))</f>
+        <f t="shared" si="4"/>
         <v>0.18229759458173381</v>
       </c>
       <c r="T7" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.6487244058491668</v>
       </c>
+      <c r="V7">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>6.2484896864156703E-4</v>
+      </c>
+      <c r="W7">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>3.1351490386022363E-6</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -7422,19 +7481,19 @@
         <v>0.6</v>
       </c>
       <c r="C8" s="6">
+        <f t="shared" si="6"/>
+        <v>0.7927445962862949</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.82211880039050889</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>0.7927445962862949</v>
-      </c>
-      <c r="D8" s="7">
-        <f xml:space="preserve"> EXP(O8) - 1</f>
-        <v>0.82211880039050889</v>
-      </c>
-      <c r="E8" s="3">
-        <f xml:space="preserve"> EXP(2 * O8) - EXP(O8) * C8</f>
         <v>1.8756420899353052</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.18756420899353055</v>
       </c>
       <c r="H8" s="18">
@@ -7452,7 +7511,7 @@
         <v>0.19185558769250824</v>
       </c>
       <c r="L8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.82293528231922874</v>
       </c>
       <c r="N8" s="18">
@@ -7466,23 +7525,31 @@
         <v>0.1822110637243812</v>
       </c>
       <c r="Q8" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O8 + 0.05)) - EXP(O8 + 0.05) * (T8 + P8/2))</f>
+        <f t="shared" si="2"/>
         <v>0.19199695914600687</v>
       </c>
       <c r="R8" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O8 + 0.05)) - EXP(O8 + 0.05) * (T8 + Q8/2))</f>
+        <f t="shared" si="3"/>
         <v>0.19105969503457765</v>
       </c>
       <c r="S8" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O8 + 0.1)) - EXP(O8 + 0.1) * (T8 + R8))</f>
+        <f t="shared" si="4"/>
         <v>0.20149000068592132</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.82212328042040339</v>
       </c>
+      <c r="V8">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>8.1648192871985881E-4</v>
+      </c>
+      <c r="W8">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>4.480029894504689E-6</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -7490,19 +7557,19 @@
         <v>0.7</v>
       </c>
       <c r="C9" s="6">
+        <f t="shared" si="6"/>
+        <v>0.98030880527982545</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0137527074704766</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>0.98030880527982545</v>
-      </c>
-      <c r="D9" s="7">
-        <f xml:space="preserve"> EXP(O9) - 1</f>
-        <v>1.0137527074704766</v>
-      </c>
-      <c r="E9" s="3">
-        <f xml:space="preserve"> EXP(2 * O9) - EXP(O9) * C9</f>
         <v>2.0811004560552777</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.20811004560552779</v>
       </c>
       <c r="H9" s="18">
@@ -7520,7 +7587,7 @@
         <v>0.21204423461963234</v>
       </c>
       <c r="L9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.014790870011737</v>
       </c>
       <c r="N9" s="18">
@@ -7534,23 +7601,31 @@
         <v>0.20137400173140746</v>
       </c>
       <c r="Q9" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O9 + 0.05)) - EXP(O9 + 0.05) * (T9 + P9/2))</f>
+        <f t="shared" si="2"/>
         <v>0.21224068484819125</v>
       </c>
       <c r="R9" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O9 + 0.05)) - EXP(O9 + 0.05) * (T9 + Q9/2))</f>
+        <f t="shared" si="3"/>
         <v>0.21109044643125349</v>
       </c>
       <c r="S9" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O9 + 0.1)) - EXP(O9 + 0.1) * (T9 + R9))</f>
+        <f t="shared" si="4"/>
         <v>0.22270798296112143</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0137590092156485</v>
       </c>
+      <c r="V9">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>1.0381625412603235E-3</v>
+      </c>
+      <c r="W9">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>6.3017451719105111E-6</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -7558,19 +7633,19 @@
         <v>0.8</v>
       </c>
       <c r="C10" s="6">
+        <f t="shared" si="6"/>
+        <v>1.1884188508853533</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2255409284924679</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v>1.1884188508853533</v>
-      </c>
-      <c r="D10" s="7">
-        <f xml:space="preserve"> EXP(O10) - 1</f>
-        <v>1.2255409284924679</v>
-      </c>
-      <c r="E10" s="3">
-        <f xml:space="preserve"> EXP(2 * O10) - EXP(O10) * C10</f>
         <v>2.3081576315577741</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.23081576315577743</v>
       </c>
       <c r="H10" s="18">
@@ -7588,7 +7663,7 @@
         <v>0.2343574447437535</v>
       </c>
       <c r="L10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.2268351046313692</v>
       </c>
       <c r="N10" s="18">
@@ -7602,23 +7677,31 @@
         <v>0.22255213691069856</v>
       </c>
       <c r="Q10" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O10 + 0.05)) - EXP(O10 + 0.05) * (T10 + P10/2))</f>
+        <f t="shared" si="2"/>
         <v>0.23462471510004637</v>
       </c>
       <c r="R10" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O10 + 0.05)) - EXP(O10 + 0.05) * (T10 + Q10/2))</f>
+        <f t="shared" si="3"/>
         <v>0.23321243662227947</v>
       </c>
       <c r="S10" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O10 + 0.1)) - EXP(O10 + 0.1) * (T10 + R10))</f>
+        <f t="shared" si="4"/>
         <v>0.2461671532702035</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.2255497170908849</v>
       </c>
+      <c r="V10">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>1.2941761389013706E-3</v>
+      </c>
+      <c r="W10">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>8.7885984170199549E-6</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -7626,19 +7709,19 @@
         <v>0.9</v>
       </c>
       <c r="C11" s="6">
+        <f t="shared" si="6"/>
+        <v>1.4192346140411307</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4596031111569499</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
-        <v>1.4192346140411307</v>
-      </c>
-      <c r="D11" s="7">
-        <f xml:space="preserve"> EXP(O11) - 1</f>
-        <v>1.4596031111569499</v>
-      </c>
-      <c r="E11" s="3">
-        <f xml:space="preserve"> EXP(2 * O11) - EXP(O11) * C11</f>
         <v>2.5588935922557483</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.25588935922557482</v>
       </c>
       <c r="H11" s="18">
@@ -7656,7 +7739,7 @@
         <v>0.25901892041200725</v>
       </c>
       <c r="L11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.4611925493751228</v>
       </c>
       <c r="N11" s="18">
@@ -7670,23 +7753,31 @@
         <v>0.24595730920169695</v>
       </c>
       <c r="Q11" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O11 + 0.05)) - EXP(O11 + 0.05) * (T11 + P11/2))</f>
+        <f t="shared" si="2"/>
         <v>0.25937659256480039</v>
       </c>
       <c r="R11" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O11 + 0.05)) - EXP(O11 + 0.05) * (T11 + Q11/2))</f>
+        <f t="shared" si="3"/>
         <v>0.25764167403414673</v>
       </c>
       <c r="S11" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O11 + 0.1)) - EXP(O11 + 0.1) * (T11 + R11))</f>
+        <f t="shared" si="4"/>
         <v>0.27210676280491447</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.4596153160284773</v>
       </c>
+      <c r="V11">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>1.5894382181729227E-3</v>
+      </c>
+      <c r="W11">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>1.2204871527421446E-5</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -7694,19 +7785,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
+        <f t="shared" si="6"/>
+        <v>1.6751239732667056</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7182818284590451</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
-        <v>1.6751239732667056</v>
-      </c>
-      <c r="D12" s="7">
-        <f xml:space="preserve"> EXP(O12) - 1</f>
-        <v>1.7182818284590451</v>
-      </c>
-      <c r="E12" s="3">
-        <f xml:space="preserve"> EXP(2 * O12) - EXP(O12) * C12</f>
         <v>2.8355970419836494</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.28355970419836496</v>
       </c>
       <c r="H12" s="18">
@@ -7724,7 +7815,7 @@
         <v>0.28627600904604028</v>
       </c>
       <c r="L12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.72021146978713</v>
       </c>
       <c r="N12" s="18">
@@ -7738,23 +7829,31 @@
         <v>0.27182358303186521</v>
       </c>
       <c r="Q12" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O12 + 0.05)) - EXP(O12 + 0.05) * (T12 + P12/2))</f>
+        <f t="shared" si="2"/>
         <v>0.28674830848250882</v>
       </c>
       <c r="R12" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O12 + 0.05)) - EXP(O12 + 0.05) * (T12 + Q12/2))</f>
+        <f t="shared" si="3"/>
         <v>0.28461582556396803</v>
       </c>
       <c r="S12" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O12 + 0.1)) - EXP(O12 + 0.1) * (T12 + R12))</f>
+        <f t="shared" si="4"/>
         <v>0.30079255819691186</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.7182987502292282</v>
       </c>
+      <c r="V12">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>1.9296413280849301E-3</v>
+      </c>
+      <c r="W12">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>1.6921770183087048E-5</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -7762,19 +7861,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="6">
+        <f t="shared" si="6"/>
+        <v>1.9586836774650704</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0041660239464334</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>1.9586836774650704</v>
-      </c>
-      <c r="D13" s="7">
-        <f xml:space="preserve"> EXP(O13) - 1</f>
-        <v>2.0041660239464334</v>
-      </c>
-      <c r="E13" s="3">
-        <f xml:space="preserve"> EXP(2 * O13) - EXP(O13) * C13</f>
         <v>3.1408025439351031</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.31408025439351034</v>
       </c>
       <c r="H13" s="18">
@@ -7792,7 +7891,7 @@
         <v>0.31640224015006502</v>
       </c>
       <c r="L13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.0064874788331704</v>
       </c>
       <c r="N13" s="18">
@@ -7806,23 +7905,31 @@
         <v>0.30040955426973881</v>
       </c>
       <c r="Q13" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O13 + 0.05)) - EXP(O13 + 0.05) * (T13 + P13/2))</f>
+        <f t="shared" si="2"/>
         <v>0.317018977109713</v>
       </c>
       <c r="R13" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O13 + 0.05)) - EXP(O13 + 0.05) * (T13 + Q13/2))</f>
+        <f t="shared" si="3"/>
         <v>0.31439618903735067</v>
       </c>
       <c r="S13" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O13 + 0.1)) - EXP(O13 + 0.1) * (T13 + R13))</f>
+        <f t="shared" si="4"/>
         <v>0.3325200847069929</v>
       </c>
       <c r="T13" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.0041894851161834</v>
       </c>
+      <c r="V13">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>2.3214548867369622E-3</v>
+      </c>
+      <c r="W13">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>2.3461169750049748E-5</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -7830,19 +7937,19 @@
         <v>1.2</v>
       </c>
       <c r="C14" s="6">
+        <f t="shared" si="6"/>
+        <v>2.2727639318585808</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3201169227365472</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>2.2727639318585808</v>
-      </c>
-      <c r="D14" s="7">
-        <f xml:space="preserve"> EXP(O14) - 1</f>
-        <v>2.3201169227365472</v>
-      </c>
-      <c r="E14" s="3">
-        <f xml:space="preserve"> EXP(2 * O14) - EXP(O14) * C14</f>
         <v>3.4773343890926744</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.34773343890926744</v>
       </c>
       <c r="H14" s="18">
@@ -7860,7 +7967,7 @@
         <v>0.34970014593430698</v>
       </c>
       <c r="L14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.3228897189832356</v>
       </c>
       <c r="N14" s="18">
@@ -7874,23 +7981,31 @@
         <v>0.33200088277262252</v>
       </c>
       <c r="Q14" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O14 + 0.05)) - EXP(O14 + 0.05) * (T14 + P14/2))</f>
+        <f t="shared" si="2"/>
         <v>0.35049780902536426</v>
       </c>
       <c r="R14" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O14 + 0.05)) - EXP(O14 + 0.05) * (T14 + Q14/2))</f>
+        <f t="shared" si="3"/>
         <v>0.34726977821131694</v>
       </c>
       <c r="S14" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O14 + 0.1)) - EXP(O14 + 0.1) * (T14 + R14))</f>
+        <f t="shared" si="4"/>
         <v>0.36761854385000048</v>
       </c>
       <c r="T14" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.3201494803279932</v>
       </c>
+      <c r="V14">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>2.7727962466883582E-3</v>
+      </c>
+      <c r="W14">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>3.2557591445936396E-5</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -7898,19 +8013,19 @@
         <v>1.3</v>
       </c>
       <c r="C15" s="6">
+        <f t="shared" si="6"/>
+        <v>2.6204973707678483</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6692966676192444</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>2.6204973707678483</v>
-      </c>
-      <c r="D15" s="7">
-        <f xml:space="preserve"> EXP(O15) - 1</f>
-        <v>2.6692966676192444</v>
-      </c>
-      <c r="E15" s="3">
-        <f xml:space="preserve"> EXP(2 * O15) - EXP(O15) * C15</f>
         <v>3.8483557649382334</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.38483557649382338</v>
       </c>
       <c r="H15" s="18">
@@ -7928,7 +8043,7 @@
         <v>0.38650440166804878</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.6725898649175424</v>
       </c>
       <c r="N15" s="18">
@@ -7942,23 +8057,31 @@
         <v>0.36691306457975603</v>
       </c>
       <c r="Q15" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O15 + 0.05)) - EXP(O15 + 0.05) * (T15 + P15/2))</f>
+        <f t="shared" si="2"/>
         <v>0.38752741648233935</v>
       </c>
       <c r="R15" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O15 + 0.05)) - EXP(O15 + 0.05) * (T15 + Q15/2))</f>
+        <f t="shared" si="3"/>
         <v>0.38355150011594952</v>
       </c>
       <c r="S15" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O15 + 0.1)) - EXP(O15 + 0.1) * (T15 + R15))</f>
+        <f t="shared" si="4"/>
         <v>0.40645535000263777</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.6693419138439909</v>
       </c>
+      <c r="V15">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>3.2931972982979119E-3</v>
+      </c>
+      <c r="W15">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>4.5246224746442465E-5</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -7966,19 +8089,19 @@
         <v>1.4</v>
       </c>
       <c r="C16" s="6">
+        <f t="shared" si="6"/>
+        <v>3.0053329472616719</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0551999668446745</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>3.0053329472616719</v>
-      </c>
-      <c r="D16" s="7">
-        <f xml:space="preserve"> EXP(O16) - 1</f>
-        <v>3.0551999668446745</v>
-      </c>
-      <c r="E16" s="3">
-        <f xml:space="preserve"> EXP(2 * O16) - EXP(O16) * C16</f>
         <v>4.2574207030043087</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.42574207030043087</v>
       </c>
       <c r="H16" s="18">
@@ -7996,7 +8119,7 @@
         <v>0.42718532964810763</v>
       </c>
       <c r="L16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.0590942665855909</v>
       </c>
       <c r="N16" s="18">
@@ -8010,23 +8133,31 @@
         <v>0.4054944536709586</v>
       </c>
       <c r="Q16" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O16 + 0.05)) - EXP(O16 + 0.05) * (T16 + P16/2))</f>
+        <f t="shared" si="2"/>
         <v>0.42848748720935231</v>
       </c>
       <c r="R16" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O16 + 0.05)) - EXP(O16 + 0.05) * (T16 + Q16/2))</f>
+        <f t="shared" si="3"/>
         <v>0.42358639045808782</v>
       </c>
       <c r="S16" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O16 + 0.1)) - EXP(O16 + 0.1) * (T16 + R16))</f>
+        <f t="shared" si="4"/>
         <v>0.44944158336658102</v>
       </c>
       <c r="T16" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.0552629551404862</v>
       </c>
+      <c r="V16">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>3.8942997409163738E-3</v>
+      </c>
+      <c r="W16">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>6.2988295811639006E-5</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -8034,19 +8165,19 @@
         <v>1.5</v>
       </c>
       <c r="C17" s="6">
+        <f t="shared" si="6"/>
+        <v>3.4310750175621028</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4816890703380645</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>3.4310750175621028</v>
-      </c>
-      <c r="D17" s="7">
-        <f xml:space="preserve"> EXP(O17) - 1</f>
-        <v>3.4816890703380645</v>
-      </c>
-      <c r="E17" s="3">
-        <f xml:space="preserve"> EXP(2 * O17) - EXP(O17) * C17</f>
         <v>4.7085255174696083</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.47085255174696083</v>
       </c>
       <c r="H17" s="18">
@@ -8064,7 +8195,7 @@
         <v>0.47215282212533866</v>
       </c>
       <c r="L17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.4862795962336985</v>
       </c>
       <c r="N17" s="18">
@@ -8078,23 +8209,31 @@
         <v>0.44812953530666494</v>
       </c>
       <c r="Q17" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O17 + 0.05)) - EXP(O17 + 0.05) * (T17 + P17/2))</f>
+        <f t="shared" si="2"/>
         <v>0.47379886661363813</v>
       </c>
       <c r="R17" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O17 + 0.05)) - EXP(O17 + 0.05) * (T17 + Q17/2))</f>
+        <f t="shared" si="3"/>
         <v>0.46775185216064552</v>
       </c>
       <c r="S17" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O17 + 0.1)) - EXP(O17 + 0.1) * (T17 + R17))</f>
+        <f t="shared" si="4"/>
         <v>0.49703861248619713</v>
       </c>
       <c r="T17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.4817769205358893</v>
       </c>
+      <c r="V17">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>4.5905258956340234E-3</v>
+      </c>
+      <c r="W17">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>8.7850197824757004E-5</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -8102,19 +8241,19 @@
         <v>1.6</v>
       </c>
       <c r="C18" s="6">
+        <f t="shared" si="6"/>
+        <v>3.9019275693090636</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>3.9530324243951149</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>3.9019275693090636</v>
-      </c>
-      <c r="D18" s="7">
-        <f xml:space="preserve"> EXP(O18) - 1</f>
-        <v>3.9530324243951149</v>
-      </c>
-      <c r="E18" s="3">
-        <f xml:space="preserve"> EXP(2 * O18) - EXP(O18) * C18</f>
         <v>5.2061564286803446</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.52061564286803452</v>
       </c>
       <c r="H18" s="18">
@@ -8132,7 +8271,7 @@
         <v>0.52186075591420045</v>
       </c>
       <c r="L18" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.9584324183590374</v>
       </c>
       <c r="N18" s="18">
@@ -8146,23 +8285,31 @@
         <v>0.49524243883300834</v>
       </c>
       <c r="Q18" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O18 + 0.05)) - EXP(O18 + 0.05) * (T18 + P18/2))</f>
+        <f t="shared" si="2"/>
         <v>0.52392809256205375</v>
       </c>
       <c r="R18" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O18 + 0.05)) - EXP(O18 + 0.05) * (T18 + Q18/2))</f>
+        <f t="shared" si="3"/>
         <v>0.51645981154722342</v>
       </c>
       <c r="S18" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O18 + 0.1)) - EXP(O18 + 0.1) * (T18 + R18))</f>
+        <f t="shared" si="4"/>
         <v>0.54976626963392694</v>
       </c>
       <c r="T18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.9531551847594608</v>
       </c>
+      <c r="V18">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>5.3999939639224337E-3</v>
+      </c>
+      <c r="W18">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>1.2276036434588633E-4</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -8170,19 +8317,19 @@
         <v>1.7</v>
       </c>
       <c r="C19" s="6">
+        <f t="shared" si="6"/>
+        <v>4.4225432121770982</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4739473917271999</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>4.4225432121770982</v>
-      </c>
-      <c r="D19" s="7">
-        <f xml:space="preserve"> EXP(O19) - 1</f>
-        <v>4.4739473917271999</v>
-      </c>
-      <c r="E19" s="3">
-        <f xml:space="preserve"> EXP(2 * O19) - EXP(O19) * C19</f>
         <v>5.7553311662993529</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.57553311662993534</v>
       </c>
       <c r="H19" s="18">
@@ -8200,7 +8347,7 @@
         <v>0.57681199852772413</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.4802931742732381</v>
       </c>
       <c r="N19" s="18">
@@ -8214,23 +8361,31 @@
         <v>0.54730065343214707</v>
       </c>
       <c r="Q19" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O19 + 0.05)) - EXP(O19 + 0.05) * (T19 + P19/2))</f>
+        <f t="shared" si="2"/>
         <v>0.5793924327343497</v>
       </c>
       <c r="R19" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O19 + 0.05)) - EXP(O19 + 0.05) * (T19 + Q19/2))</f>
+        <f t="shared" si="3"/>
         <v>0.57015866078183741</v>
       </c>
       <c r="S19" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O19 + 0.1)) - EXP(O19 + 0.1) * (T19 + R19))</f>
+        <f t="shared" si="4"/>
         <v>0.60821312446438291</v>
       </c>
       <c r="T19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.4741192708737092</v>
       </c>
+      <c r="V19">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>6.3457825460382367E-3</v>
+      </c>
+      <c r="W19">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>1.7187914650929059E-4</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -8238,19 +8393,19 @@
         <v>1.8</v>
       </c>
       <c r="C20" s="6">
+        <f t="shared" si="6"/>
+        <v>4.9980763288070333</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>5.0496474644129465</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>4.9980763288070333</v>
-      </c>
-      <c r="D20" s="7">
-        <f xml:space="preserve"> EXP(O20) - 1</f>
-        <v>5.0496474644129465</v>
-      </c>
-      <c r="E20" s="3">
-        <f xml:space="preserve"> EXP(2 * O20) - EXP(O20) * C20</f>
         <v>6.3616346541681494</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.63616346541681501</v>
       </c>
       <c r="H20" s="18">
@@ -8268,7 +8423,7 @@
         <v>0.63756414937715178</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.0571051728009619</v>
       </c>
       <c r="N20" s="18">
@@ -8282,23 +8437,31 @@
         <v>0.6048188689030316</v>
       </c>
       <c r="Q20" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O20 + 0.05)) - EXP(O20 + 0.05) * (T20 + P20/2))</f>
+        <f t="shared" si="2"/>
         <v>0.64076548401975164</v>
       </c>
       <c r="R20" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O20 + 0.05)) - EXP(O20 + 0.05) * (T20 + Q20/2))</f>
+        <f t="shared" si="3"/>
         <v>0.62933478479021265</v>
       </c>
       <c r="S20" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O20 + 0.1)) - EXP(O20 + 0.1) * (T20 + R20))</f>
+        <f t="shared" si="4"/>
         <v>0.67304964394219202</v>
       </c>
       <c r="T20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.0498885983618598</v>
       </c>
+      <c r="V20">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>7.4577083880154049E-3</v>
+      </c>
+      <c r="W20">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>2.4113394891323026E-4</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -8306,19 +8469,19 @@
         <v>1.9</v>
       </c>
       <c r="C21" s="6">
+        <f t="shared" si="6"/>
+        <v>5.6342397942238485</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6858944422792685</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>5.6342397942238485</v>
-      </c>
-      <c r="D21" s="7">
-        <f xml:space="preserve"> EXP(O21) - 1</f>
-        <v>5.6858944422792685</v>
-      </c>
-      <c r="E21" s="3">
-        <f xml:space="preserve"> EXP(2 * O21) - EXP(O21) * C21</f>
         <v>7.0312519666308972</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.70312519666308981</v>
       </c>
       <c r="H21" s="18">
@@ -8336,7 +8499,7 @@
         <v>0.70473623278918396</v>
       </c>
       <c r="L21" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.6946693221781137</v>
       </c>
       <c r="N21" s="18">
@@ -8350,23 +8513,31 @@
         <v>0.66836279385932407</v>
       </c>
       <c r="Q21" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O21 + 0.05)) - EXP(O21 + 0.05) * (T21 + P21/2))</f>
+        <f t="shared" si="2"/>
         <v>0.70868341104617372</v>
       </c>
       <c r="R21" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O21 + 0.05)) - EXP(O21 + 0.05) * (T21 + Q21/2))</f>
+        <f t="shared" si="3"/>
         <v>0.69451335998302854</v>
       </c>
       <c r="S21" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O21 + 0.1)) - EXP(O21 + 0.1) * (T21 + R21))</f>
+        <f t="shared" si="4"/>
         <v>0.74504539742137865</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.6862334401060517</v>
       </c>
+      <c r="V21">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>8.7748798988451782E-3</v>
+      </c>
+      <c r="W21">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>3.3899782678314949E-4</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -8374,19 +8545,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="6">
+        <f t="shared" si="6"/>
+        <v>6.3373649908869378</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3890560989306504</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>6.3373649908869378</v>
-      </c>
-      <c r="D22" s="7">
-        <f xml:space="preserve"> EXP(O22) - 1</f>
-        <v>6.3890560989306504</v>
-      </c>
-      <c r="E22" s="3">
-        <f xml:space="preserve"> EXP(2 * O22) - EXP(O22) * C22</f>
         <v>7.7710045960815251</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.77710045960815255</v>
       </c>
       <c r="H22" s="18">
@@ -8418,23 +8589,31 @@
         <v>0.73855268635839555</v>
       </c>
       <c r="Q22" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O22 + 0.05)) - EXP(O22 + 0.05) * (T22 + P22/2))</f>
+        <f t="shared" si="2"/>
         <v>0.78385193603956371</v>
       </c>
       <c r="R22" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O22 + 0.05)) - EXP(O22 + 0.05) * (T22 + Q22/2))</f>
+        <f t="shared" si="3"/>
         <v>0.76625793145390309</v>
       </c>
       <c r="S22" s="10">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (O22 + 0.1)) - EXP(O22 + 0.1) * (T22 + R22))</f>
+        <f t="shared" si="4"/>
         <v>0.82509204827574301</v>
       </c>
       <c r="T22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.3895337289959029</v>
       </c>
+      <c r="V22">
+        <f xml:space="preserve">  ABS(Таблица1[[#This Row],[uiточ.]] - Таблица3[[#This Row],[ui]])</f>
+        <v>1.0349456036647275E-2</v>
+      </c>
+      <c r="W22">
+        <f xml:space="preserve"> ABS(Таблица1[[#This Row],[uiточ.]] - Таблица4[[#This Row],[ui]])</f>
+        <v>4.7763006525247675E-4</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8444,8 +8623,16 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
+      <c r="V23">
+        <f>SUM(V2:V22)</f>
+        <v>6.3554034070015877E-2</v>
+      </c>
+      <c r="W23">
+        <f>SUM(W2:W22)</f>
+        <v>1.6610002322533512E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -8458,7 +8645,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8466,7 +8653,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J58">
         <f xml:space="preserve"> EXP(1)</f>
         <v>2.7182818284590451</v>
@@ -8488,22 +8675,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" customWidth="1"/>
     <col min="26" max="26" width="37" customWidth="1"/>
-    <col min="27" max="27" width="33.7109375" customWidth="1"/>
+    <col min="27" max="27" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -8573,7 +8760,7 @@
       <c r="Z1" s="16"/>
       <c r="AA1" s="16"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -8654,7 +8841,7 @@
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -8716,7 +8903,7 @@
         <v>0.94197181858719292</v>
       </c>
       <c r="R3" s="10">
-        <f t="shared" ref="R2:R22" si="7" xml:space="preserve"> 0.1 * (6 * EXP(B3))</f>
+        <f t="shared" ref="R3:R22" si="7" xml:space="preserve"> 0.1 * (6 * EXP(B3))</f>
         <v>0.66310255084538872</v>
       </c>
       <c r="S3" s="10">
@@ -8737,7 +8924,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -8820,7 +9007,7 @@
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -8903,7 +9090,7 @@
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -8986,7 +9173,7 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -9069,7 +9256,7 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -9152,7 +9339,7 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -9235,7 +9422,7 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -9318,7 +9505,7 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -9401,7 +9588,7 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -9484,7 +9671,7 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -9567,7 +9754,7 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -9650,7 +9837,7 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -9733,7 +9920,7 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -9816,7 +10003,7 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -9899,7 +10086,7 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -9982,7 +10169,7 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -10065,7 +10252,7 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -10148,7 +10335,7 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -10231,7 +10418,7 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -10314,7 +10501,7 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -10342,7 +10529,7 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -10371,7 +10558,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -10400,7 +10587,7 @@
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>9</v>
       </c>
@@ -10429,7 +10616,7 @@
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>11</v>
       </c>
@@ -10458,7 +10645,7 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>10</v>
       </c>
